--- a/bases/BASE_NOVA.xlsx
+++ b/bases/BASE_NOVA.xlsx
@@ -635,8 +635,16 @@
           <t>FAMILIA</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SC JOHNSON</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>OFF</t>
@@ -647,8 +655,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>OFF SPRAY</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -666,15 +682,27 @@
           <t>100ML</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>R$ 15,01 à R$ 20,00</t>
+        </is>
+      </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
@@ -694,15 +722,19 @@
           <t>OE GLADE LAVANDA AERO 360ML OFERTA ESPECIAL X 12UNID 17894650937768</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>LAVANDA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FUNCIONAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -712,11 +744,19 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>ADULTO</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>GLADE</t>
@@ -727,8 +767,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>GLADE</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>GLADE AEROSOL</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -746,10 +794,18 @@
           <t>360ML</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
@@ -774,15 +830,19 @@
           <t>OE GLADE FRUTAS E FLORES VIBRANTES AERO 360ML OF ESP X 12UNI 17894650938437</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FRUTAS E FLORES VIBR</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FUNCIONAL</t>
+          <t>USO CORPORAL</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -792,11 +852,19 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>ADULTO</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>GLADE</t>
@@ -807,8 +875,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>GLADE</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>GLADE AEROSOL</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -826,10 +902,18 @@
           <t>360ML</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -854,15 +938,19 @@
           <t>GLADE LEMBRACAS DE INFANCIA AERO 360ML X 12UNID 17894650938628</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>LEMBRANCA INFANCIA</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FUNCIONAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -872,11 +960,19 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>ADULTO</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>GLADE</t>
@@ -887,8 +983,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>GLADE</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>GLADE AEROSOL</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -906,10 +1010,18 @@
           <t>360ML</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -924,7 +1036,7 @@
         <v>17894650938932</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>17894650938932</v>
@@ -934,29 +1046,41 @@
           <t>OE GLADE TQ FRESCOR AGUAS FLORAIS REF AERO 12ML LV3 PG2X24UN 17894650938932</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>COM FRAGRANCIA</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>LAVANDA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FUNCIONAL</t>
+          <t>USO CORPORAL</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CLICK SPRAY</t>
+          <t>AEROSOL</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>REFIL</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>ADULTO</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>GLADE</t>
@@ -967,8 +1091,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>GLADE</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>GLADE AEROSOL</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -986,10 +1118,18 @@
           <t>12ML</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -1014,29 +1154,41 @@
           <t>GLADE AUTOMATIC SPRAY AGUAS FLORAIS SP RF 269ML X 6UNID 17894650938949</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HAWAIIAN BREEZE</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AUTOMATICO</t>
+          <t>SPRAY</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>REFIL</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>FAMILIA</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>GLADE</t>
@@ -1047,8 +1199,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>GLADE</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>GLADE SPRAY</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -1066,10 +1226,18 @@
           <t>269ML</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NAO IDENTIFICADO</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -1094,15 +1262,19 @@
           <t>GLADE TOQUE DE MACIEZ AERO 360ML X 12UNID 17894650939045</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TOQUE DE MACIEZ</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FUNCIONAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1112,11 +1284,19 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>ADULTO</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>GLADE</t>
@@ -1127,8 +1307,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>GLADE</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>GLADE AEROSOL</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -1146,10 +1334,18 @@
           <t>360ML</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -1164,7 +1360,7 @@
         <v>17894650940126</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>17894650940126</v>
@@ -1174,29 +1370,41 @@
           <t>GLADE LAVANDA 100ML X 12UNID 17894650940126</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>LAVANDA</t>
+          <t>COM FRAGRANCIA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>GLADE</t>
@@ -1207,8 +1415,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>GLADE</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>GLADE LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -1226,10 +1442,18 @@
           <t>100ML</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -1244,7 +1468,7 @@
         <v>17894650940133</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>17894650940133</v>
@@ -1254,29 +1478,41 @@
           <t>GLADE FRESCOR DE AGUAS FLORAIS 100ML X 12UNID 17894650940133</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AGUAS FLORAIS</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LOCAO</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>GLADE</t>
@@ -1287,8 +1523,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>GLADE</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>GLADE LOCAO</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -1306,10 +1550,18 @@
           <t>100ML</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1324,7 +1576,7 @@
         <v>17894650940140</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>17894650940140</v>
@@ -1334,29 +1586,41 @@
           <t>GLADE LEMBRANCAS DE INFANCIA 100ML X 12UNID 17894650940140</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LEMBRANCAS DE INFANC</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>USO CORPORAL</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LOCAO</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>GLADE</t>
@@ -1367,8 +1631,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>GLADE</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>GLADE LOCAO</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -1386,10 +1658,18 @@
           <t>100ML</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
@@ -1404,7 +1684,7 @@
         <v>17894650940157</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>17894650940157</v>
@@ -1414,29 +1694,41 @@
           <t>GLADE TOQUE DE MACIEZ 100ML X 12UNID 17894650940157</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TOQUE DE MACIEZ</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LOCAO</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>GLADE</t>
@@ -1447,8 +1739,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>GLADE</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>GLADE LOCAO</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -1466,10 +1766,18 @@
           <t>100ML</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -1494,29 +1802,41 @@
           <t>SECAR LAVANDA 100ML X 12UN 17896013402524</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>LAVANDA</t>
+          <t>COM FRAGRANCIA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>SPRAY</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>FAMILIA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>SOIN</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>SECAR</t>
@@ -1527,8 +1847,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>SECAR</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>SECAR SPRAY</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -1546,10 +1874,18 @@
           <t>100ML</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
@@ -1574,29 +1910,41 @@
           <t>SECAR ALECRIM 100ML X 12UN 17896013402531</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ALECRIM</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>USO CORPORAL</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>SPRAY</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>FAMILIA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SOIN</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>SECAR</t>
@@ -1607,8 +1955,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>SECAR</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>SECAR SPRAY</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -1626,10 +1982,18 @@
           <t>100ML</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
@@ -1644,7 +2008,7 @@
         <v>17896013402647</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
         <v>17896013402647</v>
@@ -1654,29 +2018,41 @@
           <t>SECAR VERBENA 100ML X 12UNID 17896013402647</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VERBENA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LOCAO</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>FAMILIA</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SOIN</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>SECAR</t>
@@ -1687,8 +2063,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>SECAR</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>SECAR LOCAO</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -1706,10 +2090,18 @@
           <t>100ML</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
@@ -1724,7 +2116,7 @@
         <v>17896013402654</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
         <v>17896013402654</v>
@@ -1734,29 +2126,41 @@
           <t>SECAR SENSUAL 100ML X 12UNID 17896013402654</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ESMERALDA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LOCAO</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>SOIN</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>SECAR</t>
@@ -1767,8 +2171,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>SECAR</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>SECAR LOCAO</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -1786,10 +2198,18 @@
           <t>100ML</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
@@ -1804,7 +2224,7 @@
         <v>17896013402838</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
         <v>17896013402838</v>
@@ -1814,29 +2234,41 @@
           <t>SECAR SEMENTE NATIVA 100ML X 12UNID 17896013402838</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AMADERADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LOCAO</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>SOIN</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>SECAR</t>
@@ -1847,8 +2279,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>SECAR</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>SECAR LOCAO</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -1866,10 +2306,18 @@
           <t>100ML</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
@@ -1884,7 +2332,7 @@
         <v>17896013403033</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
         <v>17896013403033</v>
@@ -1894,29 +2342,41 @@
           <t>SECAR BAMBOO 100ML X 12UNID 17896013403033</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>BAMBOO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LOCAO</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>ADULTO</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>SOIN</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>SECAR</t>
@@ -1927,8 +2387,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>SECAR</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>SECAR LOCAO</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -1946,10 +2414,18 @@
           <t>100ML</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
@@ -1964,7 +2440,7 @@
         <v>17896013403729</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>17896013403729</v>
@@ -1974,29 +2450,41 @@
           <t>SECAR LAVANDA 150ML X 12UNID 17896013403729</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LAVANDA</t>
+          <t>COM FRAGRANCIA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SOIN</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>SECAR</t>
@@ -2007,8 +2495,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>SECAR</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>SECAR DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -2026,10 +2522,18 @@
           <t>150ML</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>DE 120ML A 250ML</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
@@ -2044,7 +2548,7 @@
         <v>17896013403736</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>17896013403736</v>
@@ -2054,29 +2558,41 @@
           <t>SECAR ALECRIM 150ML X 12UNID 17896013403736</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ALECRIM</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>SOIN</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>SECAR</t>
@@ -2087,8 +2603,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>SECAR</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>SECAR DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -2106,10 +2630,18 @@
           <t>150ML</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>DE 120ML A 250ML</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
@@ -2124,7 +2656,7 @@
         <v>17896013403743</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>17896013403743</v>
@@ -2134,29 +2666,41 @@
           <t>SECAR ROSAS 150ML X 12UNID 17896013403743</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SEM ICARIDINA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>SOIN</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>SECAR</t>
@@ -2167,8 +2711,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>SECAR</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>SECAR DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -2186,10 +2738,18 @@
           <t>150ML</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>DE 120ML A 250ML</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
@@ -2239,8 +2799,16 @@
           <t>FAMILIA</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>SC JOHNSON</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>OFF</t>
@@ -2251,22 +2819,42 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>OFF SPRAY</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NAO IDENTIFICADO</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>R$ 15,01 à R$ 20,00</t>
+        </is>
+      </c>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
@@ -2286,15 +2874,19 @@
           <t>GLADE GEL CITRUS 70G X 12UNID 37894650005669</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CITRUS</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2304,11 +2896,19 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>GEL</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>GLADE</t>
@@ -2319,8 +2919,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>GLADE</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>GLADE GEL</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -2338,10 +2946,18 @@
           <t>70G</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NAO IDENTIFICADO</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -2366,7 +2982,11 @@
           <t>NO INSET SPRAY 110ML X 12UN 37896084900039</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SEM FRAGRANCIA</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>SEM ICARIDINA</t>
@@ -2384,11 +3004,19 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+          <t>FAMILIA</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>FLORA</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>NO INSET</t>
@@ -2399,8 +3027,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>NO INSET</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>NO INSET SPRAY</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -2418,15 +3054,27 @@
           <t>110ML</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>R$ 10,01 à R$ 15,00</t>
+        </is>
+      </c>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
@@ -2436,7 +3084,7 @@
         <v>47891035539938</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
         <v>47891035539938</v>
@@ -2446,29 +3094,41 @@
           <t>BOM AR AIR WICK F MATIC CITR SP RF250ML X 6 UNID 47891035539938</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LAVANDA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>AUTOMATICO</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>AIR WICK</t>
@@ -2476,20 +3136,36 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>T. RECKITT</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+          <t>T. O MARCAS</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>AIR WICK</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>AIR WICK DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NAO IDENTIFICADO</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
@@ -2504,7 +3180,7 @@
         <v>47891035539945</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
         <v>47891035539945</v>
@@ -2514,29 +3190,41 @@
           <t>BOM AR AIR WICK F.MATIC LAV SP RF250ML/170GX6 UNID 47891035539945</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>LAVANDA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>AUTOMATICO</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>RECKITT</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>T. RECKITT</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>BOM AR</t>
@@ -2547,17 +3235,33 @@
           <t>T. RECKITT</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>BOM AR</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>BOM AR DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NAO IDENTIFICADO</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
@@ -2607,8 +3311,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>TRID</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>TRI D</t>
@@ -2619,8 +3331,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>TRI D</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>TRI D DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -2638,15 +3358,27 @@
           <t>5000ML</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Até R$ 4,00</t>
+        </is>
+      </c>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
@@ -2691,8 +3423,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>UFENOL</t>
@@ -2703,8 +3443,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>UFENOL</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>UFENOL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -2722,15 +3470,27 @@
           <t>750ML</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
@@ -2775,8 +3535,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>BRILHANTE</t>
@@ -2787,8 +3555,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>BRILHANTE</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>BRILHANTE DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -2806,15 +3582,27 @@
           <t>1000ML</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
@@ -2859,8 +3647,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>BRILHANTE</t>
@@ -2871,8 +3667,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>BRILHANTE</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>BRILHANTE DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -2890,15 +3694,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
@@ -2943,8 +3759,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>BRILHANTE</t>
@@ -2955,8 +3779,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>BRILHANTE</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>BRILHANTE DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -2974,15 +3806,27 @@
           <t>1000ML</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 10,00</t>
+        </is>
+      </c>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
@@ -3027,8 +3871,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>BRILHANTE</t>
@@ -3039,8 +3891,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>BRILHANTE</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>BRILHANTE DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -3058,15 +3918,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
@@ -3111,8 +3983,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>FAST</t>
@@ -3123,8 +4003,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>FAST DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -3142,15 +4030,27 @@
           <t>5000ML</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 10,00</t>
+        </is>
+      </c>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
@@ -3172,7 +4072,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>ANTIBAC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3195,8 +4095,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -3207,8 +4115,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -3226,15 +4142,27 @@
           <t>1000ML</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
@@ -3279,8 +4207,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -3291,8 +4227,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -3310,15 +4254,27 @@
           <t>1750ML</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>ATE 2L</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
@@ -3363,8 +4319,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -3375,8 +4339,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -3394,15 +4366,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
@@ -3447,8 +4431,16 @@
           <t>LENCO</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -3459,8 +4451,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -3478,15 +4478,27 @@
           <t>20G</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>ATE 120G</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
@@ -3531,8 +4543,16 @@
           <t>LENCO</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -3543,8 +4563,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -3562,15 +4590,27 @@
           <t>36G</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>ATE 120G</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
@@ -3592,7 +4632,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>ANTIBAC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3615,8 +4655,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -3627,8 +4675,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -3646,15 +4702,27 @@
           <t>1000ML</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
@@ -3676,7 +4744,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>ANTIBAC</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3699,8 +4767,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -3711,8 +4787,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
@@ -3730,15 +4814,27 @@
           <t>1750ML</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>ATE 2L</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
@@ -3760,7 +4856,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>ANTIBAC</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3783,8 +4879,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -3795,8 +4899,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -3814,15 +4926,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
@@ -3867,8 +4991,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -3879,8 +5011,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
@@ -3898,15 +5038,27 @@
           <t>450ML</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
@@ -3951,8 +5103,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -3963,8 +5123,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
@@ -3982,15 +5150,27 @@
           <t>450ML</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>PROMOCIONAL</t>
+        </is>
+      </c>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
@@ -4035,8 +5215,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -4047,8 +5235,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
@@ -4066,15 +5262,27 @@
           <t>900ML</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
@@ -4119,8 +5327,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -4131,8 +5347,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
@@ -4150,15 +5374,27 @@
           <t>900ML</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>PROMOCIONAL</t>
+        </is>
+      </c>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
@@ -4203,8 +5439,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>UNILEVER</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>OMO</t>
@@ -4215,8 +5459,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>OMO</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>OMO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
@@ -4234,15 +5486,27 @@
           <t>900ML</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
@@ -4287,8 +5551,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>ACONCHEGO</t>
@@ -4299,8 +5571,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>ACONCHEGO</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>ACONCHEGO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
@@ -4318,15 +5598,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
@@ -4371,8 +5663,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>ACONCHEGO</t>
@@ -4383,8 +5683,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>ACONCHEGO</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>ACONCHEGO DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
@@ -4402,15 +5710,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
@@ -4455,8 +5775,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>COLGATE / PALMOLIVE</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>PINHO BEST</t>
@@ -4467,8 +5795,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>PINHO BEST</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>PINHO BEST DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
@@ -4486,15 +5822,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 10,00</t>
+        </is>
+      </c>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
@@ -4539,8 +5887,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>COLGATE / PALMOLIVE</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>PINHO BEST</t>
@@ -4551,8 +5907,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>PINHO BEST</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>PINHO BEST DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
@@ -4570,15 +5934,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
@@ -4623,8 +5999,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>COLGATE / PALMOLIVE</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>PINHO BEST</t>
@@ -4635,8 +6019,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>PINHO BEST</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>PINHO BEST DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
@@ -4654,15 +6046,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>R$ 10,01 à R$ 13,00</t>
+        </is>
+      </c>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
@@ -4707,8 +6111,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>SUPER UTIL</t>
@@ -4719,8 +6131,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>SUPER UTIL</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>SUPER UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -4738,15 +6158,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
@@ -4791,8 +6223,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>SUPER UTIL</t>
@@ -4803,8 +6243,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>SUPER UTIL</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>SUPER UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
@@ -4822,15 +6270,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
@@ -4875,8 +6335,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>SUPER UTIL</t>
@@ -4887,8 +6355,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>SUPER UTIL</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>SUPER UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
@@ -4906,15 +6382,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
@@ -4959,8 +6447,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>SUPER UTIL</t>
@@ -4971,8 +6467,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>SUPER UTIL</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>SUPER UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
@@ -4990,15 +6494,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
@@ -5043,8 +6559,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>SUPER UTIL</t>
@@ -5055,8 +6579,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>SUPER UTIL</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>SUPER UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
@@ -5074,15 +6606,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
@@ -5127,8 +6671,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>UTIL</t>
@@ -5139,8 +6691,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>UTIL</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
@@ -5158,15 +6718,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
@@ -5211,8 +6783,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>UTIL</t>
@@ -5223,8 +6803,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>UTIL</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
@@ -5242,15 +6830,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
@@ -5295,8 +6895,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>UTIL</t>
@@ -5307,8 +6915,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>UTIL</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
@@ -5326,15 +6942,27 @@
           <t>5000ML</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
@@ -5379,8 +7007,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>UTIL</t>
@@ -5391,8 +7027,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>UTIL</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
@@ -5410,15 +7054,27 @@
           <t>1000ML</t>
         </is>
       </c>
-      <c r="U60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>R$ 10,01 à R$ 13,00</t>
+        </is>
+      </c>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
@@ -5463,8 +7119,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>UTIL</t>
@@ -5475,8 +7139,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>UTIL</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
@@ -5494,15 +7166,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>R$ 10,01 à R$ 13,00</t>
+        </is>
+      </c>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
@@ -5547,8 +7231,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>UTIL</t>
@@ -5559,8 +7251,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>UTIL</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
@@ -5578,15 +7278,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
@@ -5631,8 +7343,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>UTIL</t>
@@ -5643,8 +7363,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>UTIL</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
@@ -5662,15 +7390,27 @@
           <t>5000ML</t>
         </is>
       </c>
-      <c r="U63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
@@ -5715,8 +7455,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>UTIL</t>
@@ -5727,8 +7475,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>UTIL</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
@@ -5746,15 +7502,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
@@ -5799,8 +7567,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>UTIL QUIMICA</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>UTIL</t>
@@ -5811,8 +7587,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>UTIL</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>UTIL DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
@@ -5830,15 +7614,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
@@ -5848,7 +7644,7 @@
         <v>4790</v>
       </c>
       <c r="B66" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>4790</v>
@@ -5858,7 +7654,11 @@
           <t>ATINSET AEROSOL S/APARELHO+NAO APLICA MATA TUDO 300 C/ EMBALAGEM PROMOCIONAL 1UN</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>REGULAR</t>
@@ -5871,16 +7671,24 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>AEROSOL</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>INSETOS RASTEIROS</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>MATINSET</t>
@@ -5891,8 +7699,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>MATINSET</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>MATINSET PO</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
@@ -5910,10 +7726,18 @@
           <t>300ML</t>
         </is>
       </c>
-      <c r="U66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
@@ -5928,7 +7752,7 @@
         <v>4791</v>
       </c>
       <c r="B67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>4791</v>
@@ -5938,7 +7762,11 @@
           <t>TINSET AEROSOL S/APARELHO+NAO APLICA SEM VERSAO 300 C/ EMBALAGEM PROMOCIONAL 1UN</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>REGULAR</t>
@@ -5951,16 +7779,24 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>AEROSOL</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>MULTINSETOS</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>MATINSET</t>
@@ -5971,8 +7807,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>MATINSET</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>MATINSET PO</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
@@ -5990,10 +7834,18 @@
           <t>300ML</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
@@ -6008,7 +7860,7 @@
         <v>4792</v>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>4792</v>
@@ -6018,7 +7870,11 @@
           <t>TINSET AEROSOL S/APARELHO+NAO APLICA SEM VERSAO 300 S/ EMBALAGEM PROMOCIONAL 1UN</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>REGULAR</t>
@@ -6031,16 +7887,24 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>AEROSOL</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>MULTINSETOS</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>MATINSET</t>
@@ -6051,8 +7915,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>MATINSET</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>MATINSET PO</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
@@ -6070,10 +7942,18 @@
           <t>300ML</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
@@ -6088,7 +7968,7 @@
         <v>4793</v>
       </c>
       <c r="B69" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>4793</v>
@@ -6098,7 +7978,11 @@
           <t>TINSET AEROSOL S/APARELHO+NAO APLICA SEM VERSAO 360 C/ EMBALAGEM PROMOCIONAL 1UN</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>REGULAR</t>
@@ -6111,16 +7995,24 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AEROSOL</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>MULTINSETOS</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>MATINSET</t>
@@ -6131,8 +8023,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>MATINSET</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>MATINSET PO</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
@@ -6150,10 +8050,18 @@
           <t>360ML</t>
         </is>
       </c>
-      <c r="U69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
@@ -6168,7 +8076,7 @@
         <v>5172</v>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C70" t="n">
         <v>5172</v>
@@ -6178,29 +8086,41 @@
           <t>OUTRO FABRICANTE OUTRA MARCA BLOCO SOLIDO N/APLICA 1 SIN FRAGANCIA NAO PROMOCAO</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>SEM INFO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>SOLIDO</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>BLOCO</t>
+          <t>LIMPADOR MULTIUSO</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>SEM FRAGRANCIA</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>OUTRO FABRICANTE</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>OUTRA MARCA</t>
@@ -6211,22 +8131,42 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>OUTRA MARCA</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>OUTRA MARCA LIMPADOR MULTIUSO</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NAO IDENTIFICADO</t>
+        </is>
+      </c>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>R$ 10,01 à R$ 12,50</t>
+        </is>
+      </c>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
@@ -6236,7 +8176,7 @@
         <v>5173</v>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C71" t="n">
         <v>5173</v>
@@ -6246,29 +8186,41 @@
           <t>RB HARPIC PEDRA SOLIDO APARELHO 1 BOSQUE DE PINHO NAO PROMOCAO</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SEM INFO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>SOLIDO</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>PEDRA</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>COM FRAGRANCIA</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>RECKITT</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>T. RECKITT</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>HARPIC</t>
@@ -6279,17 +8231,33 @@
           <t>T. RECKITT</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>HARPIC</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>HARPIC DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NAO IDENTIFICADO</t>
+        </is>
+      </c>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
@@ -6304,7 +8272,7 @@
         <v>5174</v>
       </c>
       <c r="B72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C72" t="n">
         <v>5174</v>
@@ -6314,29 +8282,41 @@
           <t>RB HARPIC PEDRA SOLIDO N/APLICA 1 FLORES DA PRIMAVERA NAO PROMOCAO</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SEM INFO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>SOLIDO</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>PEDRA</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>COM FRAGRANCIA</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>RECKITT</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>T. RECKITT</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>HARPIC</t>
@@ -6347,17 +8327,33 @@
           <t>T. RECKITT</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>HARPIC</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>HARPIC LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NAO IDENTIFICADO</t>
+        </is>
+      </c>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
@@ -6372,7 +8368,7 @@
         <v>5175</v>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C73" t="n">
         <v>5175</v>
@@ -6382,29 +8378,41 @@
           <t>RB HARPIC PEDRA SOLIDO N/APLICA 1 LAVANDA PROMOCAO</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SEM INFO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>SOLIDO</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>PEDRA</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>COM FRAGRANCIA</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>RECKITT</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>T. RECKITT</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>HARPIC</t>
@@ -6415,17 +8423,33 @@
           <t>T. RECKITT</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>HARPIC</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>HARPIC LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>NAO IDENTIFICADO</t>
+        </is>
+      </c>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>PROMOCIONAL</t>
+        </is>
+      </c>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
@@ -6440,7 +8464,7 @@
         <v>7898910095116</v>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" t="n">
         <v>7898910095116</v>
@@ -6450,7 +8474,11 @@
           <t>QUEROSENE TUPI TRAD.1L</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>REGULAR</t>
@@ -6463,7 +8491,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>QUEROSENE</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6471,8 +8499,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>TUPI</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>TUPI</t>
@@ -6483,8 +8519,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>TUPI</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>TUPI DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
@@ -6502,10 +8546,18 @@
           <t>1000ML</t>
         </is>
       </c>
-      <c r="U74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
@@ -6555,8 +8607,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>TUPI</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>TUPI</t>
@@ -6567,8 +8627,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>TUPI</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>TUPI ALCOOL</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
@@ -6586,15 +8654,27 @@
           <t>1000ML</t>
         </is>
       </c>
-      <c r="U75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 10,00</t>
+        </is>
+      </c>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
@@ -6614,7 +8694,11 @@
           <t>ALCOOL TUPI GEL ACENDED 80 INPM PET 425G</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>REGULAR</t>
@@ -6622,7 +8706,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ANTISSEPTICO</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6635,8 +8719,16 @@
           <t>GEL</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>TUPI</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>TUPI</t>
@@ -6647,8 +8739,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>TUPI</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>TUPI ALCOOL</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
@@ -6666,15 +8766,27 @@
           <t>80G</t>
         </is>
       </c>
-      <c r="U76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>ATE 120G</t>
+        </is>
+      </c>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
-      <c r="AC76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 10,00</t>
+        </is>
+      </c>
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr"/>
@@ -6719,8 +8831,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>TUPI</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>TUPI</t>
@@ -6731,8 +8851,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>TUPI</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>TUPI ALCOOL</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
@@ -6750,15 +8878,27 @@
           <t>1000ML</t>
         </is>
       </c>
-      <c r="U77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 10,00</t>
+        </is>
+      </c>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr"/>
@@ -6803,8 +8943,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -6815,8 +8963,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>BRINORT DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
@@ -6834,15 +8990,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U78" t="inlineStr"/>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr"/>
@@ -6887,8 +9055,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -6899,8 +9075,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>BRINORT DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
@@ -6918,10 +9102,18 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
@@ -6971,8 +9163,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -6983,8 +9183,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>BRINORT DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
@@ -7002,10 +9210,18 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
@@ -7055,8 +9271,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -7067,8 +9291,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>BRINORT DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
@@ -7086,15 +9318,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr"/>
@@ -7139,8 +9383,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -7151,8 +9403,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>BRINORT DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
@@ -7170,15 +9430,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U82" t="inlineStr"/>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
-      <c r="AC82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD82" t="inlineStr"/>
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr"/>
@@ -7223,8 +9495,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -7235,8 +9515,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>BRINORT DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
@@ -7254,15 +9542,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
-      <c r="AC83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr"/>
@@ -7307,8 +9607,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -7319,8 +9627,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>BRINORT DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
@@ -7338,15 +9654,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U84" t="inlineStr"/>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr"/>
@@ -7391,8 +9719,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -7403,8 +9739,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>BRINORT DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
@@ -7422,15 +9766,27 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U85" t="inlineStr"/>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr"/>
@@ -7475,8 +9831,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>HIPER</t>
@@ -7487,8 +9851,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>HIPER DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
@@ -7506,10 +9878,18 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
@@ -7559,8 +9939,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>HIPER</t>
@@ -7571,8 +9959,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>HIPER DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
@@ -7590,10 +9986,18 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U87" t="inlineStr"/>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
@@ -7643,8 +10047,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>HIPER</t>
@@ -7655,8 +10067,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>HIPER DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
@@ -7674,10 +10094,18 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
@@ -7727,8 +10155,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>HIPER</t>
@@ -7739,8 +10175,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>HIPER DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr">
@@ -7758,10 +10202,18 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U89" t="inlineStr"/>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
@@ -7811,8 +10263,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -7823,8 +10283,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>BRINORT DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr">
@@ -7842,10 +10310,18 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U90" t="inlineStr"/>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
@@ -7895,8 +10371,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>HIPER</t>
@@ -7907,8 +10391,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>HIPER DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr">
@@ -7926,10 +10418,18 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U91" t="inlineStr"/>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
@@ -7979,8 +10479,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>HIPER</t>
@@ -7991,8 +10499,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>HIPER</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>HIPER DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
@@ -8010,10 +10526,18 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U92" t="inlineStr"/>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
@@ -8045,7 +10569,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>COM FRAGRANCIA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -8063,8 +10587,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -8075,8 +10607,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>BRINORT LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
@@ -8094,10 +10634,18 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U93" t="inlineStr"/>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
@@ -8129,7 +10677,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>COM FRAGRANCIA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -8147,8 +10695,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -8159,8 +10715,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>BRINORT LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr">
@@ -8178,10 +10742,18 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U94" t="inlineStr"/>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
@@ -8213,7 +10785,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>COM FRAGRANCIA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8231,8 +10803,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -8243,8 +10823,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>BRINORT LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr">
@@ -8262,10 +10850,18 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
@@ -8315,8 +10911,16 @@
           <t>GARRAFA</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -8327,8 +10931,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>BRINORT LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr">
@@ -8346,10 +10958,18 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U96" t="inlineStr"/>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>PROMOCIONAL</t>
+        </is>
+      </c>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
@@ -8381,7 +11001,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>COM FRAGRANCIA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -8399,8 +11019,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>BRINORT</t>
@@ -8411,8 +11039,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>BRINORT</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>BRINORT LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr">
@@ -8430,10 +11066,18 @@
           <t>2000ML</t>
         </is>
       </c>
-      <c r="U97" t="inlineStr"/>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
@@ -8483,8 +11127,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>DUPAR</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>SUPER LAR</t>
@@ -8495,8 +11147,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>SUPER LAR</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>SUPER LAR ALCOOL</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
@@ -8514,15 +11174,27 @@
           <t>1000ML</t>
         </is>
       </c>
-      <c r="U98" t="inlineStr"/>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>R$ 10,01 à R$ 13,00</t>
+        </is>
+      </c>
       <c r="AD98" t="inlineStr"/>
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr"/>
@@ -8567,8 +11239,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>DUPAR</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>SUPER LAR</t>
@@ -8579,8 +11259,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>SUPER LAR</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>SUPER LAR ALCOOL</t>
+        </is>
+      </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr">
@@ -8598,10 +11286,18 @@
           <t>1000ML</t>
         </is>
       </c>
-      <c r="U99" t="inlineStr"/>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>ATE 1L</t>
+        </is>
+      </c>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
@@ -8616,7 +11312,7 @@
         <v>7898912018458</v>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C100" t="n">
         <v>7898912018458</v>
@@ -8626,7 +11322,11 @@
           <t>PREMISSE ALEGRIA 350ML 7898912018458</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>REGULAR</t>
@@ -8634,21 +11334,29 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>PREMISSE</t>
@@ -8659,8 +11367,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>PREMISSE</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>PREMISSE DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr">
@@ -8678,10 +11394,18 @@
           <t>350ML</t>
         </is>
       </c>
-      <c r="U100" t="inlineStr"/>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="inlineStr"/>
@@ -8696,7 +11420,7 @@
         <v>7898912018991</v>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
         <v>7898912018991</v>
@@ -8706,29 +11430,41 @@
           <t>PREMISSE CONFORTO DE DELICADEZA PULV 300ML 00000007898912018991</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>CONFORTO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>SPRAY</t>
+          <t>PALHA DE ACO</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>PREMISSE</t>
@@ -8739,8 +11475,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>PREMISSE</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>PREMISSE PALHA DE ACO</t>
+        </is>
+      </c>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr">
@@ -8758,10 +11502,18 @@
           <t>300ML</t>
         </is>
       </c>
-      <c r="U101" t="inlineStr"/>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
@@ -8776,7 +11528,7 @@
         <v>7898912019509</v>
       </c>
       <c r="B102" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C102" t="n">
         <v>7898912019509</v>
@@ -8786,29 +11538,41 @@
           <t>PREMISSE VANILLA 350ML 7898912019509</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>VANILLA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>PREMISSE</t>
@@ -8819,8 +11583,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>PREMISSE</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>PREMISSE DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr">
@@ -8838,10 +11610,18 @@
           <t>350ML</t>
         </is>
       </c>
-      <c r="U102" t="inlineStr"/>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
@@ -8866,7 +11646,11 @@
           <t>PURIFICADOR SPRAY PREMISSE DOCE CARINHO 300ML</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr">
         <is>
           <t>SEM ICARIDINA</t>
@@ -8874,7 +11658,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -8884,11 +11668,19 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+          <t>FAMILIA</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>PREMISSE</t>
@@ -8899,8 +11691,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>PREMISSE</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>PREMISSE SPRAY</t>
+        </is>
+      </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
@@ -8918,10 +11718,18 @@
           <t>300ML</t>
         </is>
       </c>
-      <c r="U103" t="inlineStr"/>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="inlineStr"/>
@@ -8946,7 +11754,11 @@
           <t>PURIFICADOR SPRAY PREMISSE ACONCHEGO 300ML</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr">
         <is>
           <t>SEM ICARIDINA</t>
@@ -8954,7 +11766,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -8964,11 +11776,19 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+          <t>FAMILIA</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>PREMISSE</t>
@@ -8979,8 +11799,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>PREMISSE</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>PREMISSE SPRAY</t>
+        </is>
+      </c>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr">
@@ -8998,10 +11826,18 @@
           <t>300ML</t>
         </is>
       </c>
-      <c r="U104" t="inlineStr"/>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
@@ -9038,7 +11874,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -9051,8 +11887,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>ABSOLUTO</t>
@@ -9063,22 +11907,42 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>ABSOLUTO</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>ABSOLUTO ALCOOL</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>NAO IDENTIFICADO</t>
+        </is>
+      </c>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 10,00</t>
+        </is>
+      </c>
       <c r="AD105" t="inlineStr"/>
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr"/>
@@ -9110,7 +11974,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>COZINHA</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -9123,8 +11987,16 @@
           <t>GEL</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>ABSOLUTO</t>
@@ -9135,8 +12007,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>ABSOLUTO</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>ABSOLUTO ALCOOL</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr">
@@ -9154,15 +12034,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U106" t="inlineStr"/>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr">
+        <is>
+          <t>R$ 10,01 à R$ 13,00</t>
+        </is>
+      </c>
       <c r="AD106" t="inlineStr"/>
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr"/>
@@ -9207,8 +12099,16 @@
           <t>LIQUIDO</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>ABSOLUTO</t>
@@ -9219,22 +12119,42 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>ABSOLUTO</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>ABSOLUTO ALCOOL</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>NAO IDENTIFICADO</t>
+        </is>
+      </c>
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 10,00</t>
+        </is>
+      </c>
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr"/>
@@ -9266,7 +12186,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>ANTISSEPTICO</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -9279,8 +12199,16 @@
           <t>GEL</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>ABSOLUTO</t>
@@ -9291,8 +12219,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>ABSOLUTO</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>ABSOLUTO ALCOOL</t>
+        </is>
+      </c>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
@@ -9302,23 +12238,35 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>5000ML</t>
-        </is>
-      </c>
-      <c r="U108" t="inlineStr"/>
+          <t>1500ML</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>ATE 2L</t>
+        </is>
+      </c>
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
-      <c r="AC108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 10,00</t>
+        </is>
+      </c>
       <c r="AD108" t="inlineStr"/>
       <c r="AE108" t="inlineStr"/>
       <c r="AF108" t="inlineStr"/>
@@ -9363,8 +12311,16 @@
           <t>GEL</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>ABSOLUTO</t>
@@ -9375,8 +12331,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>ABSOLUTO</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>ABSOLUTO ALCOOL</t>
+        </is>
+      </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr">
@@ -9394,15 +12358,27 @@
           <t>500ML</t>
         </is>
       </c>
-      <c r="U109" t="inlineStr"/>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>DE 250ML A 500ML</t>
+        </is>
+      </c>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr">
+        <is>
+          <t>R$ 10,01 à R$ 13,00</t>
+        </is>
+      </c>
       <c r="AD109" t="inlineStr"/>
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr"/>
@@ -9434,7 +12410,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>ANTISSEPTICO</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -9447,8 +12423,16 @@
           <t>GEL</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>ABSOLUTO</t>
@@ -9459,8 +12443,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>ABSOLUTO</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>ABSOLUTO ALCOOL</t>
+        </is>
+      </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr">
@@ -9470,23 +12462,35 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>2000ML</t>
-        </is>
-      </c>
-      <c r="U110" t="inlineStr"/>
+          <t>5000ML</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>ACIMA DE 2L</t>
+        </is>
+      </c>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="inlineStr"/>
-      <c r="AC110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 10,00</t>
+        </is>
+      </c>
       <c r="AD110" t="inlineStr"/>
       <c r="AE110" t="inlineStr"/>
       <c r="AF110" t="inlineStr"/>
@@ -9496,7 +12500,7 @@
         <v>7898913886100</v>
       </c>
       <c r="B111" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C111" t="n">
         <v>7898913886100</v>
@@ -9506,7 +12510,11 @@
           <t>VITTA LIRIO LIQ 120ML 7898913886100</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr">
         <is>
           <t>SEM ICARIDINA</t>
@@ -9514,21 +12522,29 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>VITTA</t>
@@ -9539,8 +12555,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>VITTA</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>VITTA LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr">
@@ -9558,10 +12582,18 @@
           <t>120ML</t>
         </is>
       </c>
-      <c r="U111" t="inlineStr"/>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr"/>
@@ -9576,7 +12608,7 @@
         <v>7898913886124</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C112" t="n">
         <v>7898913886124</v>
@@ -9586,7 +12618,11 @@
           <t>VITTA STILLETO LIQ 120ML 7898913886124</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr">
         <is>
           <t>SEM ICARIDINA</t>
@@ -9594,21 +12630,29 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>VITTA</t>
@@ -9619,8 +12663,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>VITTA</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>VITTA DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr">
@@ -9638,10 +12690,18 @@
           <t>120ML</t>
         </is>
       </c>
-      <c r="U112" t="inlineStr"/>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
@@ -9656,7 +12716,7 @@
         <v>7898913886643</v>
       </c>
       <c r="B113" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C113" t="n">
         <v>7898913886643</v>
@@ -9666,29 +12726,41 @@
           <t>VITTA PITANGA LIQ 120ML 7898913886643</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>PITANGA</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>VITTA</t>
@@ -9699,8 +12771,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>VITTA</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>VITTA LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr">
@@ -9718,10 +12798,18 @@
           <t>120ML</t>
         </is>
       </c>
-      <c r="U113" t="inlineStr"/>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="inlineStr"/>
@@ -9736,7 +12824,7 @@
         <v>7898913886650</v>
       </c>
       <c r="B114" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C114" t="n">
         <v>7898913886650</v>
@@ -9746,29 +12834,41 @@
           <t>VITTA CAPIM LIMAO LIQ 120ML 7898913886650</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>CAPIM LIMAO</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>VITTA</t>
@@ -9779,8 +12879,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>VITTA</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>VITTA LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr">
@@ -9798,10 +12906,18 @@
           <t>120ML</t>
         </is>
       </c>
-      <c r="U114" t="inlineStr"/>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="inlineStr"/>
@@ -9816,7 +12932,7 @@
         <v>7898913886827</v>
       </c>
       <c r="B115" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C115" t="n">
         <v>7898913886827</v>
@@ -9826,29 +12942,41 @@
           <t>VITTA MADEIRA LIQ 120ML 7898913886827</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>MADEIRA</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>VITTA</t>
@@ -9859,8 +12987,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>VITTA</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>VITTA LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr">
@@ -9878,10 +13014,18 @@
           <t>120ML</t>
         </is>
       </c>
-      <c r="U115" t="inlineStr"/>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="inlineStr"/>
@@ -9896,7 +13040,7 @@
         <v>7898913886834</v>
       </c>
       <c r="B116" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C116" t="n">
         <v>7898913886834</v>
@@ -9906,7 +13050,11 @@
           <t>VITTA PATCHOULI LIQ 120ML 7898913886834</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>SEM ICARIDINA</t>
@@ -9914,21 +13062,29 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>VITTA</t>
@@ -9939,8 +13095,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>VITTA</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>VITTA DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr">
@@ -9958,10 +13122,18 @@
           <t>120ML</t>
         </is>
       </c>
-      <c r="U116" t="inlineStr"/>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="inlineStr"/>
@@ -9976,7 +13148,7 @@
         <v>7898913887107</v>
       </c>
       <c r="B117" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C117" t="n">
         <v>7898913887107</v>
@@ -9986,29 +13158,41 @@
           <t>VITTA LAVANDA LIQ 120ML 7898913887107</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>LAVANDA</t>
+          <t>COM FRAGRANCIA</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>DIFUSOR</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>K&amp;M</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>VITTA</t>
@@ -10019,8 +13203,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>VITTA</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>VITTA DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr">
@@ -10038,10 +13230,18 @@
           <t>120ML</t>
         </is>
       </c>
-      <c r="U117" t="inlineStr"/>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>ATE 120ML</t>
+        </is>
+      </c>
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
@@ -10056,7 +13256,7 @@
         <v>7898915453034</v>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118" t="n">
         <v>7898915453034</v>
@@ -10066,7 +13266,11 @@
           <t>ANTI MOFO SANTA CLARA NEUTRO 80G</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr">
         <is>
           <t>REGULAR</t>
@@ -10074,17 +13278,29 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>SENSORIAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>ANTIMOFO</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+          <t>DESINFETANTE</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>LIQUIDO</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>SANTA CLARA</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>SANTA CLARA</t>
@@ -10095,8 +13311,16 @@
           <t>T. O MARCAS</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>SANTA CLARA</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>SANTA CLARA DESINFETANTE</t>
+        </is>
+      </c>
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr">
@@ -10114,10 +13338,18 @@
           <t>80G</t>
         </is>
       </c>
-      <c r="U118" t="inlineStr"/>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>ATE 120G</t>
+        </is>
+      </c>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr"/>

--- a/bases/BASE_NOVA.xlsx
+++ b/bases/BASE_NOVA.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ADULTO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -810,7 +810,11 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>R$ 15,01 à R$ 20,00</t>
+        </is>
+      </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
@@ -837,7 +841,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -852,7 +856,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ADULTO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -918,7 +922,11 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>R$ 15,01 à R$ 20,00</t>
+        </is>
+      </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
@@ -960,7 +968,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ADULTO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1048,12 +1056,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>COM FRAGRANCIA</t>
+          <t>SEM FRAGRANCIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1068,7 +1076,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ADULTO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1284,7 +1292,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ADULTO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1387,12 +1395,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>LIMPADOR PERFUMADO</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1422,7 +1430,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>GLADE LIMPADOR PERFUMADO</t>
+          <t>GLADE DESINFETANTE</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -1468,7 +1476,7 @@
         <v>17894650940133</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>17894650940133</v>
@@ -1495,12 +1503,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>LOCAO</t>
+          <t>LUSTRA MOVEIS</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1530,7 +1538,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>GLADE LOCAO</t>
+          <t>GLADE LUSTRA MOVEIS</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
@@ -1576,7 +1584,7 @@
         <v>17894650940140</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>17894650940140</v>
@@ -1598,17 +1606,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>USO CORPORAL</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>LOCAO</t>
+          <t>SPRAY</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1638,7 +1646,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>GLADE LOCAO</t>
+          <t>GLADE SPRAY</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
@@ -1684,7 +1692,7 @@
         <v>17894650940157</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>17894650940157</v>
@@ -1711,12 +1719,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>LOCAO</t>
+          <t>LUSTRA MOVEIS</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1746,7 +1754,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>GLADE LOCAO</t>
+          <t>GLADE LUSTRA MOVEIS</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
@@ -1792,7 +1800,7 @@
         <v>17896013402524</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>17896013402524</v>
@@ -1819,7 +1827,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SPRAY</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1854,7 +1862,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>SECAR SPRAY</t>
+          <t>SECAR LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -1912,7 +1920,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>REGULAR</t>
+          <t>SEM FRAGRANCIA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2148,7 +2156,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2256,7 +2264,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2364,7 +2372,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>ADULTO</t>
+          <t>FAMILIA</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2575,7 +2583,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>DESINFETANTE</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2610,7 +2618,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>SECAR DESINFETANTE</t>
+          <t>SECAR LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -2683,7 +2691,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>DESINFETANTE</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2718,7 +2726,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>SECAR DESINFETANTE</t>
+          <t>SECAR LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -3070,11 +3078,7 @@
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>R$ 10,01 à R$ 15,00</t>
-        </is>
-      </c>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
@@ -3343,24 +3347,12 @@
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>5000ML</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -3567,24 +3559,12 @@
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>1000ML</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>ATE 1L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -3791,24 +3771,12 @@
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>1000ML</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>ATE 1L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -4015,24 +3983,12 @@
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>5000ML</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -4127,24 +4083,12 @@
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>1000ML</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>ATE 1L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -4239,24 +4183,12 @@
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>1750</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>1750ML</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>ATE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -4687,24 +4619,12 @@
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>1000ML</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>ATE 1L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -4799,24 +4719,12 @@
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>1750</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>1750ML</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>ATE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -5583,24 +5491,12 @@
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>2000ML</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -5695,24 +5591,12 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>2000ML</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -5807,24 +5691,12 @@
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>2000ML</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -5840,7 +5712,7 @@
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>R$ 7,01 à R$ 10,00</t>
+          <t>R$ 4,01 à R$ 7,00</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr"/>
@@ -5919,24 +5791,12 @@
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>2000ML</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -6031,24 +5891,12 @@
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>2000ML</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -6064,7 +5912,7 @@
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>R$ 10,01 à R$ 13,00</t>
+          <t>R$ 4,01 à R$ 7,00</t>
         </is>
       </c>
       <c r="AD51" t="inlineStr"/>
@@ -6143,24 +5991,12 @@
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>2000ML</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -6255,24 +6091,12 @@
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>2000ML</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -6479,24 +6303,12 @@
       </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>2000ML</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -6703,24 +6515,12 @@
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>2000ML</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -6927,24 +6727,12 @@
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>5000ML</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -6960,7 +6748,7 @@
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>R$ 4,01 à R$ 7,00</t>
+          <t>R$ 13,01 à R$ 16,00</t>
         </is>
       </c>
       <c r="AD59" t="inlineStr"/>
@@ -7039,24 +6827,12 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>1000ML</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>ATE 1L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -7072,7 +6848,7 @@
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>R$ 10,01 à R$ 13,00</t>
+          <t>R$ 4,01 à R$ 7,00</t>
         </is>
       </c>
       <c r="AD60" t="inlineStr"/>
@@ -7151,24 +6927,12 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>2000ML</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -7184,7 +6948,7 @@
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>R$ 10,01 à R$ 13,00</t>
+          <t>R$ 4,01 à R$ 7,00</t>
         </is>
       </c>
       <c r="AD61" t="inlineStr"/>
@@ -7375,24 +7139,12 @@
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>5000ML</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -7487,24 +7239,12 @@
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>2000ML</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>ACIMA DE 2L</t>
+          <t>NAO IDENTIFICADO</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -7676,7 +7416,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>ROUPAS BRANCAS E COLORIDAS</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -7779,12 +7519,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>PO</t>
+          <t>BARRA</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>ROUPAS BRANCAS E COLORIDAS</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -7814,7 +7554,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>MATINSET PO</t>
+          <t>MATINSET BARRA</t>
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
@@ -7887,12 +7627,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>PO</t>
+          <t>BARRA</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>ROUPAS BRANCAS E COLORIDAS</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -7922,7 +7662,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>MATINSET PO</t>
+          <t>MATINSET BARRA</t>
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
@@ -7995,12 +7735,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PO</t>
+          <t>BARRA</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>ROUPAS BRANCAS E COLORIDAS</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -8030,7 +7770,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>MATINSET PO</t>
+          <t>MATINSET BARRA</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -8108,7 +7848,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>ROUPAS BRANCAS E COLORIDAS</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -8164,7 +7904,7 @@
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>R$ 10,01 à R$ 12,50</t>
+          <t>R$ 4,01 à R$ 7,00</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr"/>
@@ -8299,7 +8039,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>LIMPADOR PERFUMADO</t>
+          <t>DESINFETANTE</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -8334,7 +8074,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>HARPIC LIMPADOR PERFUMADO</t>
+          <t>HARPIC DESINFETANTE</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
@@ -8358,7 +8098,11 @@
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>Acima R$ 8,01</t>
+        </is>
+      </c>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
@@ -8447,7 +8191,7 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr">
         <is>
-          <t>PROMOCIONAL</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr"/>
@@ -9118,7 +8862,11 @@
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>R$ 4,01 à R$ 7,00</t>
+        </is>
+      </c>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
@@ -9558,11 +9306,7 @@
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>R$ 4,01 à R$ 7,00</t>
-        </is>
-      </c>
+      <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr"/>
@@ -9670,11 +9414,7 @@
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>R$ 4,01 à R$ 7,00</t>
-        </is>
-      </c>
+      <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr"/>
@@ -9782,11 +9522,7 @@
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>R$ 4,01 à R$ 7,00</t>
-        </is>
-      </c>
+      <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr"/>
@@ -10908,7 +10644,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>GARRAFA</t>
+          <t>LIQUIDO</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -10967,7 +10703,7 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>PROMOCIONAL</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr"/>
@@ -11190,11 +10926,7 @@
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>R$ 10,01 à R$ 13,00</t>
-        </is>
-      </c>
+      <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="inlineStr"/>
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr"/>
@@ -11221,7 +10953,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>COM FRAGRANCIA</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -11658,7 +11390,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>SUPERFICIES</t>
+          <t>USO CORPORAL</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -12176,7 +11908,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ANTIBAC</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -12238,17 +11970,17 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>1500ML</t>
+          <t>5000ML</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>ATE 2L</t>
+          <t>ACIMA DE 2L</t>
         </is>
       </c>
       <c r="V108" t="inlineStr"/>
@@ -12635,7 +12367,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>DESINFETANTE</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -12670,7 +12402,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>VITTA DESINFETANTE</t>
+          <t>VITTA LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="P112" t="inlineStr"/>
@@ -13067,7 +12799,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>DESINFETANTE</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -13102,7 +12834,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>VITTA DESINFETANTE</t>
+          <t>VITTA LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="P116" t="inlineStr"/>

--- a/bases/BASE_NOVA.xlsx
+++ b/bases/BASE_NOVA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,150 +451,145 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>plu</t>
+          <t>nome_produto</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>nome_produto</t>
+          <t>setor_gerenciado</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>setor_gerenciado</t>
+          <t>setor_produto</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>setor_produto</t>
+          <t>sub_categoria</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sub_categoria</t>
+          <t>segmento</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>segmento</t>
+          <t>sub_segmento</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>sub_segmento</t>
+          <t>fabricante</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>fabricante</t>
+          <t>fabricante_varejista</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>fabricante_varejista</t>
+          <t>marca</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>marca</t>
+          <t>marca_verejista</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>marca_verejista</t>
+          <t>marca_res</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>marca_res</t>
+          <t>marca_detalhada</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>marca_detalhada</t>
+          <t>atributo</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>atributo</t>
+          <t>embalagem</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>embalagem</t>
+          <t>unid_medida</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>unid_medida</t>
+          <t>tamanho_produto</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>tamanho_unidade</t>
+          <t>tamanho_medida</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>tamanho_total</t>
+          <t>tamanho_range</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>tamanho_range</t>
+          <t>se_oferta</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>se_oferta</t>
+          <t>qtd_itens</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>qtd_itens</t>
+          <t>dcr_oferta</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>dcr_oferta</t>
+          <t>desc_a</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>desc_a</t>
+          <t>desc_b</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>desc_b</t>
+          <t>desc_c</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>desc_c</t>
+          <t>desc_d</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>desc_d</t>
+          <t>desc_e</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>desc_e</t>
+          <t>desc_f</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>desc_f</t>
+          <t>desc_g</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>desc_g</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>desc_h</t>
         </is>
@@ -602,92 +597,88 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7899852022178</v>
+        <v>7896232720792</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>7899852022178</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>7896232720792</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>YANTRA OCEANO 120ML 7896232720792</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KIT SABONETE LIQUIDO FACIAL VULT 150ML + 85ML GRATIS 50% DESCONTO NO DE 85ML</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>LIMPEZA PELE</t>
+          <t>DIFUSOR</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LIMPEZA OUTROS</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>K&amp;M</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>MULTI B DISTRIBUIDORA DE PRODUTOS DE BELEZA LTDA</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>YANTRA</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>VULT</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>YANTRA</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>VULT</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>VULT LIMPEZA OUTROS</t>
-        </is>
-      </c>
+          <t>YANTRA DIFUSOR</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>PROMO</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>KIT</t>
-        </is>
-      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
@@ -695,96 +686,91 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7908271306162</v>
+        <v>7896871800794</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>7908271306162</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>7896871800794</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BRIIZ FLORAL PULV 400ML 7896871800794</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LOCAO ESFOLIANTE PARA OS PES EVER YOU 170GR</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BODY CARE MASSIVO</t>
+          <t>FUNCIONAL</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>HIDRATACAO</t>
+          <t>CLICK SPRAY</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HIDRATACAO CORPO</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>LOCAO</t>
+          <t>CIRLEN</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>BRIIZ</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>BRIIZ</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>EVER YOU HIDRATACAO CORPO</t>
-        </is>
-      </c>
+          <t>BRIIZ CLICK SPRAY</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
@@ -792,96 +778,91 @@
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7899706250290</v>
+        <v>7898621090127</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>7899706250290</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>7898621090127</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BRIIZ PERF DAS MONTANHAS PULV 400ML 7898621090127</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GEL FACIAL DE LIMPEZA ANTIACNE GARNIER SKINACTIVE UNIFORM &amp; MATTE BISNAGA 150G</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>SUPERFICIES</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>LIMPEZA PELE</t>
+          <t>LIMPADOR PERFUMADO</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>LIMPEZA OUTROS</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>GEL</t>
+          <t>CIRLEN</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>L'OREAL BRASIL COMERCIAL DE COSMETICOS LTDA</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>LOREAL</t>
+          <t>BRIIZ</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>GARNIER</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>GARNIER</t>
+          <t>BRIIZ</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>GARNIER</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>GARNIER LIMPEZA OUTROS</t>
-        </is>
-      </c>
+          <t>BRIIZ LIMPADOR PERFUMADO</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
@@ -889,678 +870,667 @@
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7908271306155</v>
+        <v>7898944699434</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>7908271306155</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>7898944699434</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MADRESSENZA MEL E LIMAO 300ML 7898944699434</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CREME RESTAURADOR PARA OS PES EVER YOU 180GR</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>BODY CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>HIDRATACAO</t>
+          <t>DIFUSOR</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HIDRATACAO CORPO</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CREME</t>
+          <t>MADRESSENZA VIRTUAL</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>MADRESSENZA</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>MADRESSENZA</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>EVER YOU HIDRATACAO CORPO</t>
-        </is>
-      </c>
+          <t>MADRESSENZA DIFUSOR</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Acima R$ 22,01</t>
+        </is>
+      </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7908271304656</v>
+        <v>7898600836364</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>7908271304656</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>7898600836364</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DANI FERNANDES VERBENA E LIMAO SICILIANO 250ML 7898600836364</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERUM ACIDO GLICOLICO + ACIDO SALICILICO EVER YOU 30ML</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ANTI IDADE</t>
+          <t>DIFUSOR</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ANTIRRUGAS</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>SERUM</t>
+          <t>DANI FERNANDES</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>DANI FERNANDES</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>DANI FERNANDES</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>EVER YOU ANTIRRUGAS</t>
-        </is>
-      </c>
+          <t>DANI FERNANDES DIFUSOR</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Acima R$ 22,01</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7908271304632</v>
+        <v>7898633420912</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>7908271304632</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>7898633420912</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ALOP ALFAZEMA SPRAY 250ML 7898633420912</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SERUM FACIAL EVER YOU ACIDO HIALURONICO 30ML</t>
+          <t>SEM FRAGRANCIA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ANTI IDADE</t>
+          <t>SPRAY</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ANTIRRUGAS</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>SERUM</t>
+          <t>ALOP AROMAS</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>ALOP</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>ALOP</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>EVER YOU ANTIRRUGAS</t>
-        </is>
-      </c>
+          <t>ALOP SPRAY</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Acima R$ 22,01</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7908271305820</v>
+        <v>7898633420929</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>7908271305820</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>7898633420929</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ALOP CAPIM LIMAO SPRAY 250ML 7898633420929</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MASCARA FACIAL PRETA EVER YOU CARVAO8GR</t>
+          <t>SEM FRAGRANCIA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>MASCARA</t>
+          <t>SPRAY</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CREME</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ALOP AROMAS</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>ALOP</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>ALOP</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>EVER YOU CREME</t>
-        </is>
-      </c>
+          <t>ALOP SPRAY</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Acima R$ 22,01</t>
+        </is>
+      </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7908271305868</v>
+        <v>7898633420936</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>7908271305868</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>7898633420936</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ALOP FLOR DE LARANJEIRA SPRAY 250ML 7898633420936</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MASCARA FACIAL EVER YOU COLAGENO E ACIDO HIALURONICO 10GR</t>
+          <t>SEM FRAGRANCIA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MASCARA</t>
+          <t>SPRAY</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CREME</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ALOP AROMAS</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>ALOP</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>ALOP</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>EVER YOU CREME</t>
-        </is>
-      </c>
+          <t>ALOP SPRAY</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Acima R$ 22,01</t>
+        </is>
+      </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7908271305837</v>
+        <v>7898633420950</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>7908271305837</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>7898633420950</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ALOP MELANCIA SPRAY 250ML 7898633420950</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MASCARA FACIAL DETOX EVER YOU MELALEUCA 8GR</t>
+          <t>SEM FRAGRANCIA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>MASCARA</t>
+          <t>SPRAY</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>CREME</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ALOP AROMAS</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>ALOP</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>ALOP</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>EVER YOU CREME</t>
-        </is>
-      </c>
+          <t>ALOP SPRAY</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Acima R$ 22,01</t>
+        </is>
+      </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7908271305844</v>
+        <v>7896232720761</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>7908271305844</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>7896232720761</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>YANTRA OCEANO 120ML 7896232720761</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MASCARA FACIAL EVER YOU ARGILA VERDE E EXTRATO DE CHA VERDE 10GR</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>MASCARA</t>
+          <t>DIFUSOR</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ARGILA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>K&amp;M</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>YANTRA</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>YANTRA</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>EVER YOU ARGILA</t>
-        </is>
-      </c>
+          <t>YANTRA DIFUSOR</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
@@ -1568,880 +1538,966 @@
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7908198703563</v>
+        <v>7896960840052</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>7908198703563</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>7896960840052</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CRIS CANELA 250ML 7896960840052</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OLEO CAPILAR WEPINK BOOSTER REPAIR 30ML</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BODY CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>HIDRATACAO</t>
+          <t>DIFUSOR</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ANTIRRUGAS</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>OLEO</t>
+          <t>CRISCOSMETICOS</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>WEPINK</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>CRIS</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>WEPINK</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>CRIS</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>WEPINK</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>WEPINK ANTIRRUGAS</t>
-        </is>
-      </c>
+          <t>CRIS DIFUSOR</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 12,00</t>
+        </is>
+      </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7891010435875</v>
+        <v>7899674037183</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>7891010435875</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>7899674037183</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PURO AR N/I AERO 400ML 7899674037183</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>KIT LOCAO HIDRATANTE JOHNSONS MAIS SABONETE PELE DOS SONHOS</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BODY CARE MASSIVO</t>
+          <t>FUNCIONAL</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>LIMPEZA PELE</t>
+          <t>AEROSOL</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>HIDRATACAO CORPO</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LOCAO</t>
+          <t>BASTON DO BRASIL PRODUTOS QUIMICOS LTDA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>JOHNSONS</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>PURO AR</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>JOHNSONS</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>PURO AR</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>JOHNSONS</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>JOHNSONS HIDRATACAO CORPO</t>
-        </is>
-      </c>
+          <t>PURO AR AEROSOL</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>PROMO</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>KIT</t>
-        </is>
-      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 12,00</t>
+        </is>
+      </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7908271305851</v>
+        <v>7896013404576</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>7908271305851</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>7896013404576</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BC SECAR LAVANDA AP/REF 100ML C/2+HOME SPRAY 120MLGTS 7896013404576BP1</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MASCARA FACIAL EVER YOU ARGILA VERMELHA E ROSA MOSQUETA 10GR</t>
+          <t>SEM FRAGRANCIA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MASCARA</t>
+          <t>SPRAY</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ARGILA</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SOIN</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>SECAR</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>SECAR</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>EVER YOU</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>EVER YOU ARGILA</t>
-        </is>
-      </c>
+          <t>SECAR SPRAY</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>R$ 12,01 à R$ 17,00</t>
+        </is>
+      </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7898724151183</v>
+        <v>7897473175990</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>7898724151183</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>7897473175990</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DONE BAUNILHA AERO 400ML 7897473175990</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">SABONETE LIQUIDO FACIAL BRUSSELS COSMETICS CLEAN+ ABSOLUTE BISNAGA 100ML </t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>FUNCIONAL</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>LIMPEZA PELE</t>
+          <t>AEROSOL</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>LIMPEZA OUTROS</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>LIQUIDO</t>
+          <t>AP WINNER</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BRUSSELS COMERCIO DE COSMETICOS LTDA</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>BRUSSELS</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>BRUSSELS</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>BRUSSELS LIMPEZA OUTROS</t>
-        </is>
-      </c>
+          <t>DONE AEROSOL</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 12,00</t>
+        </is>
+      </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7898724151275</v>
+        <v>7897473175808</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>7898724151275</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>7897473175808</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DONE LAVANDA AERO 400ML 7897473175808</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERUM FACIAL BRUSSELS COSMETICS ACID+ ABSOLUTE CAIXA 30ML </t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>SEM ICARIDINA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>FUNCIONAL</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ANTI IDADE</t>
+          <t>AEROSOL</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ANTIRRUGAS</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>SERUM</t>
+          <t>AP WINNER</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BRUSSELS COMERCIO DE COSMETICOS LTDA</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>BRUSSELS</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>BRUSSELS</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>BRUSSELS ANTIRRUGAS</t>
-        </is>
-      </c>
+          <t>DONE AEROSOL</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 12,00</t>
+        </is>
+      </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7898672494561</v>
+        <v>7898920433038</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>7898672494561</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>7898920433038</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TRES BARRAS TALCO LIQUIDO 140ML 7898920433038</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEL DE LIMPEZA SUAVE BEYOUNG GENTLE CLEANSER BISNAGA 90G </t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>LIMPEZA PELE</t>
+          <t>AROMATIZANTE</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>LIMPEZA OUTROS</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>GEL</t>
+          <t>TRES BARRAS LACTEOS BRASIL</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BEYOUNG</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>TRES BARRAS</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>BEYOUNG</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>TRES BARRAS</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>BEYOUNG</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>BEYOUNG LIMPEZA OUTROS</t>
-        </is>
-      </c>
+          <t>TRES BARRAS AROMATIZANTE</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>R$ 7,01 à R$ 12,00</t>
+        </is>
+      </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7898724151138</v>
+        <v>7898564006902</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>7898724151138</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>7898564006902</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MELS BRUSHES ALECRIM 350ML 7898564006902</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">EMOLIENTE FACIAL PARA CRAVOS E ESPINHAS BRUSSELS COSMETICS BALM+ ABSOLUTE BISNAGA 100G </t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ACNE</t>
+          <t>DIFUSOR</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>LIMPEZA OUTROS</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MELS BRUSHES FRAGANCES</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BRUSSELS COMERCIO DE COSMETICOS LTDA</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>MELS BRUSHES</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>BRUSSELS</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>MELS BRUSHES</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>BRUSSELS</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>BRUSSELS LIMPEZA OUTROS</t>
-        </is>
-      </c>
+          <t>MELS BRUSHES DIFUSOR</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Acima R$ 22,01</t>
+        </is>
+      </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7896014149506</v>
+        <v>7898564006865</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>7896014149506</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>7898564006865</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MELS BRUSHES CAPIM LIMAO 350ML 7898564006865</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LOCAO HIDRATANTE LOREAL BODY EXPERTISE PERFECT SLIM 200ML</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>BODY CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>HIDRATACAO</t>
+          <t>DIFUSOR</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>HIDRATACAO CORPO</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>LOCAO</t>
+          <t>MELS BRUSHES FRAGANCES</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>L'OREAL BRASIL COMERCIAL DE COSMETICOS LTDA</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>LOREAL</t>
+          <t>MELS BRUSHES</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>LOREAL</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>MELS BRUSHES</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>LOREAL</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>LOREAL HIDRATACAO CORPO</t>
-        </is>
-      </c>
+          <t>MELS BRUSHES DIFUSOR</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Acima R$ 22,01</t>
+        </is>
+      </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7898672494776</v>
+        <v>7898564006544</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>7898672494776</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>7898564006544</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MELS BRUSHES CEREJA E AVELA 350ML 7898564006544</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">GEL DE LIMPEZA FACIAL ANTIOLEOSIDADE BEYOUNG CLEANSER OIL CONTROL BISNAGA 90G </t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GERENCIADO</t>
+          <t>REGULAR</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FACE CARE MASSIVO</t>
+          <t>SENSORIAL</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>LIMPEZA PELE</t>
+          <t>DIFUSOR</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>LIMPEZA OUTROS</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>GEL</t>
+          <t>MELS BRUSHES FRAGANCES</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BEYOUNG</t>
+          <t>T. O FABRICANTES</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>DEMAIS FAB</t>
+          <t>MELS BRUSHES</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>BEYOUNG</t>
+          <t>T. O MARCAS</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>DEMAIS MARCAS</t>
+          <t>MELS BRUSHES</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>BEYOUNG</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>BEYOUNG LIMPEZA OUTROS</t>
-        </is>
-      </c>
+          <t>MELS BRUSHES DIFUSOR</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Acima R$ 22,01</t>
+        </is>
+      </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7898586616233</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7898586616233</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AROMASIL BAMBU SPRAY 120ML 7898586616233</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SEM FRAGRANCIA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SEM ICARIDINA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SENSORIAL</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>SPRAY</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>AROMASIL</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>T. O FABRICANTES</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>AROMASIL</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>T. O MARCAS</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>AROMASIL</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>AROMASIL SPRAY</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>R$ 12,01 à R$ 17,00</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
